--- a/TCC/experimentos3/resultados/calibragemParametrosAlgoritmo.xlsx
+++ b/TCC/experimentos3/resultados/calibragemParametrosAlgoritmo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IBk" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -471,7 +477,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" topLeftCell="L2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,13 +869,13 @@
     </row>
     <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
-      <c r="B3" s="7">
+      <c r="B3" s="68">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="68">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="68">
         <v>5</v>
       </c>
       <c r="E3" s="7">
@@ -886,13 +893,13 @@
       <c r="I3" s="7">
         <v>15</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="68">
         <v>17</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="68">
         <v>19</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="68">
         <v>21</v>
       </c>
       <c r="M3" s="7">
@@ -910,10 +917,10 @@
       <c r="Q3" s="7">
         <v>31</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="68">
         <v>33</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="68">
         <v>35</v>
       </c>
       <c r="V3" s="51"/>
@@ -2141,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,13 +2228,13 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
-      <c r="B3" s="7">
+      <c r="B3" s="68">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="68">
         <v>10</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="68">
         <v>15</v>
       </c>
       <c r="E3" s="7">
@@ -2236,10 +2243,10 @@
       <c r="F3" s="7">
         <v>25</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="68">
         <v>30</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="69">
         <v>35</v>
       </c>
       <c r="I3" s="29">
@@ -2248,13 +2255,13 @@
       <c r="J3" s="7">
         <v>45</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="68">
         <v>50</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="68">
         <v>55</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="68">
         <v>60</v>
       </c>
       <c r="P3" s="62"/>
@@ -3086,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,7 +3875,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4209,6 +4216,7 @@
     <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4216,8 +4224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,13 +4310,13 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
-      <c r="B3" s="7">
+      <c r="B3" s="68">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="68">
         <v>4</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="68">
         <v>6</v>
       </c>
       <c r="E3" s="7">
@@ -4326,19 +4334,19 @@
       <c r="I3" s="7">
         <v>16</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="68">
         <v>18</v>
       </c>
       <c r="K3" s="68">
         <v>20</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="68">
         <v>22</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="68">
         <v>24</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="68">
         <v>26</v>
       </c>
       <c r="Q3" s="51"/>
@@ -5053,7 +5061,7 @@
         <v>12.6</v>
       </c>
       <c r="S10" s="19">
-        <f t="shared" ref="S10:AA10" si="20">AVERAGE(S4:S8)</f>
+        <f t="shared" ref="S10:Z10" si="20">AVERAGE(S4:S8)</f>
         <v>10.6</v>
       </c>
       <c r="T10" s="19">
@@ -5225,5 +5233,6 @@
     <mergeCell ref="R2:AA2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>